--- a/files/ONETSOC_SOC.xlsx
+++ b/files/ONETSOC_SOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janjorg/Documents/bachelorarbeit_code/bachelorarbeit/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE456E-9F4B-304C-BC1F-1E624998AD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E528A-A7DB-1449-80CF-3438319A1034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34060" yWindow="500" windowWidth="34060" windowHeight="26540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9135,8 +9135,8 @@
   <dimension ref="A1:D1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9807,7 +9807,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>731</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>1753</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>2346</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="917" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A917" s="1" t="s">
         <v>2601</v>
       </c>
